--- a/downloads/list2_with_colon.xlsx
+++ b/downloads/list2_with_colon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="232">
   <si>
     <t>Ticker</t>
   </si>
@@ -412,19 +412,19 @@
     <t>HKSE:00939</t>
   </si>
   <si>
+    <t>HKSE:02318</t>
+  </si>
+  <si>
     <t>HKSE:09618</t>
   </si>
   <si>
-    <t>HKSE:02318</t>
-  </si>
-  <si>
-    <t>HKSE:03690</t>
-  </si>
-  <si>
-    <t>HKSE:01336</t>
-  </si>
-  <si>
-    <t>HKSE:02628</t>
+    <t>SZSE:300750</t>
+  </si>
+  <si>
+    <t>HKSE:06099</t>
+  </si>
+  <si>
+    <t>HKSE:03908</t>
   </si>
   <si>
     <t>BOM:541153</t>
@@ -433,228 +433,234 @@
     <t>XKRX:145020</t>
   </si>
   <si>
-    <t>BSP:YDUQ3</t>
+    <t>BOM:543333</t>
+  </si>
+  <si>
+    <t>TPE:2383</t>
+  </si>
+  <si>
+    <t>TPE:2368</t>
+  </si>
+  <si>
+    <t>XKRX:084370</t>
+  </si>
+  <si>
+    <t>XAMS:INPST</t>
+  </si>
+  <si>
+    <t>BOM:532497</t>
   </si>
   <si>
     <t>JSE:WBC</t>
   </si>
   <si>
-    <t>BSP:SBFG3</t>
-  </si>
-  <si>
-    <t>BOM:543333</t>
-  </si>
-  <si>
-    <t>TPE:2383</t>
-  </si>
-  <si>
-    <t>BOM:532497</t>
-  </si>
-  <si>
     <t>TSE:8035</t>
   </si>
   <si>
+    <t>TSE:7203</t>
+  </si>
+  <si>
+    <t>TSE:8002</t>
+  </si>
+  <si>
     <t>TSE:6701</t>
   </si>
   <si>
-    <t>TSE:2802</t>
+    <t>TSE:6503</t>
+  </si>
+  <si>
+    <t>TPE:2308</t>
+  </si>
+  <si>
+    <t>BOM:543320</t>
+  </si>
+  <si>
+    <t>BOM:500696</t>
+  </si>
+  <si>
+    <t>NSE:BHARTIARTL</t>
+  </si>
+  <si>
+    <t>TSX:CP</t>
+  </si>
+  <si>
+    <t>TSX:BN</t>
+  </si>
+  <si>
+    <t>TSX:IAG</t>
+  </si>
+  <si>
+    <t>TSX:ALA</t>
+  </si>
+  <si>
+    <t>TSX:FTT</t>
+  </si>
+  <si>
+    <t>TSX:IFC</t>
+  </si>
+  <si>
+    <t>TSX:TVK</t>
+  </si>
+  <si>
+    <t>TSX:SJ</t>
+  </si>
+  <si>
+    <t>TSX:STN</t>
+  </si>
+  <si>
+    <t>TSX:AND</t>
+  </si>
+  <si>
+    <t>TSX:MEQ</t>
+  </si>
+  <si>
+    <t>TSX:CIGI</t>
+  </si>
+  <si>
+    <t>TSX:JWEL</t>
+  </si>
+  <si>
+    <t>TSXV:PNG</t>
+  </si>
+  <si>
+    <t>XPAR:OR</t>
+  </si>
+  <si>
+    <t>XTER:DUE</t>
+  </si>
+  <si>
+    <t>OSL:ATEA</t>
+  </si>
+  <si>
+    <t>MIL:AZM</t>
+  </si>
+  <si>
+    <t>XSWX:BAER</t>
+  </si>
+  <si>
+    <t>XKRX:138930</t>
+  </si>
+  <si>
+    <t>XKRX:139130</t>
+  </si>
+  <si>
+    <t>OCSE:ISS</t>
+  </si>
+  <si>
+    <t>XTER:LXS</t>
+  </si>
+  <si>
+    <t>MIL:CPR</t>
+  </si>
+  <si>
+    <t>HKSE:01128</t>
+  </si>
+  <si>
+    <t>TSX:CM</t>
+  </si>
+  <si>
+    <t>XKRX:030190</t>
+  </si>
+  <si>
+    <t>TSE:5344</t>
+  </si>
+  <si>
+    <t>LSE:RMV</t>
+  </si>
+  <si>
+    <t>LSE:AT.</t>
+  </si>
+  <si>
+    <t>XPAR:GTT</t>
+  </si>
+  <si>
+    <t>TSE:4733</t>
+  </si>
+  <si>
+    <t>LSE:HLMA</t>
+  </si>
+  <si>
+    <t>XTER:EVD</t>
+  </si>
+  <si>
+    <t>LSE:DSCV</t>
+  </si>
+  <si>
+    <t>TSE:6947</t>
+  </si>
+  <si>
+    <t>TSX:CNR</t>
+  </si>
+  <si>
+    <t>TSX:SU</t>
+  </si>
+  <si>
+    <t>TSX:POW</t>
+  </si>
+  <si>
+    <t>TSX:CVE</t>
+  </si>
+  <si>
+    <t>XAMS:JDEP</t>
+  </si>
+  <si>
+    <t>XAMS:HEIO</t>
+  </si>
+  <si>
+    <t>XAMS:PRX</t>
+  </si>
+  <si>
+    <t>TSE:8001</t>
   </si>
   <si>
     <t>TSE:4063</t>
   </si>
   <si>
-    <t>TSE:8801</t>
-  </si>
-  <si>
-    <t>TSE:8001</t>
+    <t>TSE:7974</t>
+  </si>
+  <si>
+    <t>TSE:8308</t>
+  </si>
+  <si>
+    <t>TSE:8725</t>
+  </si>
+  <si>
+    <t>XTER:BMW</t>
+  </si>
+  <si>
+    <t>TSX:CS</t>
+  </si>
+  <si>
+    <t>LSE:BIRG</t>
+  </si>
+  <si>
+    <t>TSE:7270</t>
+  </si>
+  <si>
+    <t>MIL:BZU</t>
+  </si>
+  <si>
+    <t>XTER:DBK</t>
+  </si>
+  <si>
+    <t>XPAR:SAF</t>
+  </si>
+  <si>
+    <t>SGX:U11</t>
+  </si>
+  <si>
+    <t>XPAR:TTE</t>
+  </si>
+  <si>
+    <t>TSX:NA</t>
+  </si>
+  <si>
+    <t>MIL:SOL</t>
   </si>
   <si>
     <t>HKSE:03968</t>
   </si>
   <si>
-    <t>NSE:BHARTIARTL</t>
-  </si>
-  <si>
-    <t>BOM:543320</t>
-  </si>
-  <si>
-    <t>TSX:CP</t>
-  </si>
-  <si>
-    <t>TSX:BN</t>
-  </si>
-  <si>
-    <t>TSX:IAG</t>
-  </si>
-  <si>
-    <t>TSX:ALA</t>
-  </si>
-  <si>
-    <t>TSX:FTT</t>
-  </si>
-  <si>
-    <t>TSX:IFC</t>
-  </si>
-  <si>
-    <t>TSX:TVK</t>
-  </si>
-  <si>
-    <t>TSX:SJ</t>
-  </si>
-  <si>
-    <t>TSX:STN</t>
-  </si>
-  <si>
-    <t>TSX:AND</t>
-  </si>
-  <si>
-    <t>TSX:MEQ</t>
-  </si>
-  <si>
-    <t>TSX:CIGI</t>
-  </si>
-  <si>
-    <t>TSX:JWEL</t>
-  </si>
-  <si>
-    <t>TSXV:PNG</t>
-  </si>
-  <si>
-    <t>XPAR:OR</t>
-  </si>
-  <si>
-    <t>XTER:DUE</t>
-  </si>
-  <si>
-    <t>OSL:ATEA</t>
-  </si>
-  <si>
-    <t>MIL:AZM</t>
-  </si>
-  <si>
-    <t>XSWX:BAER</t>
-  </si>
-  <si>
-    <t>XKRX:138930</t>
-  </si>
-  <si>
-    <t>XKRX:139130</t>
-  </si>
-  <si>
-    <t>OCSE:ISS</t>
-  </si>
-  <si>
-    <t>XTER:LXS</t>
-  </si>
-  <si>
-    <t>MIL:CPR</t>
-  </si>
-  <si>
-    <t>HKSE:01128</t>
-  </si>
-  <si>
-    <t>TSX:CM</t>
-  </si>
-  <si>
-    <t>XKRX:030190</t>
-  </si>
-  <si>
-    <t>TSE:5344</t>
-  </si>
-  <si>
-    <t>LSE:RMV</t>
-  </si>
-  <si>
-    <t>LSE:AT.</t>
-  </si>
-  <si>
-    <t>XPAR:GTT</t>
-  </si>
-  <si>
-    <t>TSE:4733</t>
-  </si>
-  <si>
-    <t>LSE:HLMA</t>
-  </si>
-  <si>
-    <t>XTER:EVD</t>
-  </si>
-  <si>
-    <t>LSE:DSCV</t>
-  </si>
-  <si>
-    <t>TSE:6947</t>
-  </si>
-  <si>
-    <t>TSX:CNR</t>
-  </si>
-  <si>
-    <t>TSX:SU</t>
-  </si>
-  <si>
-    <t>TSX:POW</t>
-  </si>
-  <si>
-    <t>TSX:CVE</t>
-  </si>
-  <si>
-    <t>XAMS:JDEP</t>
-  </si>
-  <si>
-    <t>XAMS:HEIO</t>
-  </si>
-  <si>
-    <t>XAMS:PRX</t>
-  </si>
-  <si>
-    <t>TSE:7974</t>
-  </si>
-  <si>
-    <t>TSE:8308</t>
-  </si>
-  <si>
-    <t>TSE:7203</t>
-  </si>
-  <si>
-    <t>TSE:6503</t>
-  </si>
-  <si>
-    <t>TSE:8725</t>
-  </si>
-  <si>
-    <t>XTER:BMW</t>
-  </si>
-  <si>
-    <t>TSX:CS</t>
-  </si>
-  <si>
-    <t>LSE:BIRG</t>
-  </si>
-  <si>
-    <t>TSE:7270</t>
-  </si>
-  <si>
-    <t>MIL:BZU</t>
-  </si>
-  <si>
-    <t>XTER:DBK</t>
-  </si>
-  <si>
-    <t>XPAR:SAF</t>
-  </si>
-  <si>
-    <t>SGX:U11</t>
-  </si>
-  <si>
-    <t>XPAR:TTE</t>
-  </si>
-  <si>
-    <t>TSX:NA</t>
-  </si>
-  <si>
-    <t>MIL:SOL</t>
-  </si>
-  <si>
     <t>HKSE:02899</t>
   </si>
   <si>
@@ -670,28 +676,25 @@
     <t>TPE:2454</t>
   </si>
   <si>
-    <t>SZSE:300750</t>
+    <t>TSE:3923</t>
+  </si>
+  <si>
+    <t>TSE:6532</t>
+  </si>
+  <si>
+    <t>NSE:CHOLAHLDNG</t>
   </si>
   <si>
     <t>TSE:3064</t>
   </si>
   <si>
-    <t>NSE:CHOLAHLDNG</t>
-  </si>
-  <si>
-    <t>XTER:G24</t>
-  </si>
-  <si>
-    <t>TSE:6532</t>
+    <t>TSE:6544</t>
   </si>
   <si>
     <t>TSE:7649</t>
   </si>
   <si>
-    <t>LSE:SCT</t>
-  </si>
-  <si>
-    <t>ASX:TNE</t>
+    <t>LSE:DPLM</t>
   </si>
   <si>
     <t>LSE:AJB</t>
@@ -1064,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A329"/>
+  <dimension ref="A1:A330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1922,12 +1925,12 @@
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:1">
@@ -1937,27 +1940,27 @@
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>91</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:1">
@@ -1967,27 +1970,27 @@
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="185" spans="1:1">
@@ -2002,47 +2005,47 @@
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:1">
@@ -2072,22 +2075,22 @@
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>31</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -2117,12 +2120,12 @@
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="212" spans="1:1">
@@ -2177,102 +2180,102 @@
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>123</v>
+        <v>179</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>154</v>
+        <v>58</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242" spans="1:1">
@@ -2327,22 +2330,22 @@
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="256" spans="1:1">
@@ -2352,22 +2355,22 @@
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>191</v>
+        <v>63</v>
       </c>
     </row>
     <row r="261" spans="1:1">
@@ -2377,52 +2380,52 @@
     </row>
     <row r="262" spans="1:1">
       <c r="A262" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" t="s">
-        <v>190</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -2442,52 +2445,52 @@
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
     </row>
     <row r="285" spans="1:1">
@@ -2522,32 +2525,32 @@
     </row>
     <row r="291" spans="1:1">
       <c r="A291" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
     </row>
     <row r="297" spans="1:1">
@@ -2557,12 +2560,12 @@
     </row>
     <row r="298" spans="1:1">
       <c r="A298" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="300" spans="1:1">
@@ -2572,72 +2575,72 @@
     </row>
     <row r="301" spans="1:1">
       <c r="A301" t="s">
-        <v>118</v>
+        <v>213</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
     </row>
     <row r="315" spans="1:1">
@@ -2652,17 +2655,17 @@
     </row>
     <row r="317" spans="1:1">
       <c r="A317" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
     </row>
     <row r="320" spans="1:1">
@@ -2702,7 +2705,7 @@
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="328" spans="1:1">
@@ -2713,6 +2716,11 @@
     <row r="329" spans="1:1">
       <c r="A329" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
